--- a/data_management/output/cleaned/inflacion/inflacion_linea_extrema_con_precios_implicitos.xlsx
+++ b/data_management/output/cleaned/inflacion/inflacion_linea_extrema_con_precios_implicitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\poverty_measurement\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\data_management\output\cleaned\inflacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F9F64-6E25-45AA-A1D9-E12ADB811863}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016081F-C157-4B1D-A798-26F2F1D76FF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{65FFB4F2-0CEA-496F-890D-E872D3B56A38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65FFB4F2-0CEA-496F-890D-E872D3B56A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +83,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0387658-5D0B-48DA-80BF-039E26D2652D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,60 +427,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>40.881309999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31.14766476190476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40.881309999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>48.376559999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>99.243799999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99.243799999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>106.32429999999999</v>
       </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G17" s="2"/>
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
